--- a/SRAM/Content/Report/73156_reporte Por dato vital.xlsx
+++ b/SRAM/Content/Report/73156_reporte Por dato vital.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <x:si>
     <x:t>Resumen Por Dato Vital</x:t>
   </x:si>
@@ -67,25 +67,28 @@
     <x:t>Total de Incidencias</x:t>
   </x:si>
   <x:si>
-    <x:t>11%</x:t>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30%</x:t>
   </x:si>
   <x:si>
     <x:t>0%</x:t>
   </x:si>
   <x:si>
-    <x:t>5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6%</x:t>
+    <x:t>25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -128,7 +131,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="5">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -147,12 +150,6 @@
         <x:bgColor rgb="FFFF0000"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFA500"/>
-        <x:bgColor rgb="FFFFA500"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
   <x:borders count="6">
     <x:border diagonalUp="0" diagonalDown="0">
@@ -258,7 +255,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -289,12 +286,6 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -307,14 +298,11 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="18">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -355,14 +343,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -379,11 +359,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -682,7 +658,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O9"/>
+  <x:dimension ref="A1:O7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -763,60 +739,60 @@
     </x:row>
     <x:row r="4" spans="1:15">
       <x:c r="A4" s="7" t="n">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="8" t="n">
-        <x:v>36</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="9" t="n">
-        <x:v>46050</x:v>
+        <x:v>3300</x:v>
       </x:c>
       <x:c r="D4" s="8" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="9" t="n">
-        <x:v>4950</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="F4" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G4" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H4" s="10" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H4" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J4" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K4" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L4" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M4" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N4" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O4" s="10" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="I4" s="10" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J4" s="10" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K4" s="10" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L4" s="10" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M4" s="10" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N4" s="10" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O4" s="11" t="n">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
       <x:c r="A5" s="7" t="n">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="8" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="9" t="n">
-        <x:v>10150</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="D5" s="8" t="n">
         <x:v>0</x:v>
@@ -825,10 +801,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H5" s="8" t="n">
         <x:v>0</x:v>
@@ -851,194 +827,102 @@
       <x:c r="N5" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="O5" s="12" t="n">
+      <x:c r="O5" s="10" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:15">
-      <x:c r="A6" s="7" t="n">
+      <x:c r="A6" s="11" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="12" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="13" t="n">
+        <x:v>2550</x:v>
+      </x:c>
+      <x:c r="D6" s="12" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="13" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="F6" s="12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G6" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B6" s="8" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C6" s="9" t="n">
-        <x:v>23500</x:v>
-      </x:c>
-      <x:c r="D6" s="8" t="n">
+      <x:c r="H6" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I6" s="12" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E6" s="9" t="n">
-        <x:v>900</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G6" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="n">
+      <x:c r="J6" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K6" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L6" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M6" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N6" s="12" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O6" s="14" t="n">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="I6" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J6" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K6" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L6" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M6" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N6" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O6" s="12" t="n">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15">
-      <x:c r="A7" s="7" t="n">
-        <x:v>23</x:v>
+      <x:c r="A7" s="8" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B7" s="8" t="n">
-        <x:v>59</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="9" t="n">
-        <x:v>65112</x:v>
+        <x:v>6200</x:v>
       </x:c>
       <x:c r="D7" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="9" t="n">
-        <x:v>2900</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G7" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H7" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I7" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J7" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K7" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L7" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I7" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J7" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K7" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L7" s="8" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="M7" s="8" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O7" s="12" t="n">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:15">
-      <x:c r="A8" s="13" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B8" s="14" t="n">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C8" s="15" t="n">
-        <x:v>46460</x:v>
-      </x:c>
-      <x:c r="D8" s="14" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E8" s="15" t="n">
-        <x:v>2640</x:v>
-      </x:c>
-      <x:c r="F8" s="14" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G8" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H8" s="16" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I8" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J8" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K8" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O7" s="8" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="M8" s="16" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="N8" s="16" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O8" s="17" t="n">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:15">
-      <x:c r="A9" s="8" t="s"/>
-      <x:c r="B9" s="8" t="n">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="C9" s="9" t="n">
-        <x:v>191272</x:v>
-      </x:c>
-      <x:c r="D9" s="8" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E9" s="9" t="n">
-        <x:v>11390</x:v>
-      </x:c>
-      <x:c r="F9" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G9" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H9" s="10" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I9" s="10" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J9" s="10" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K9" s="10" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L9" s="10" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M9" s="10" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N9" s="10" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O9" s="10" t="n">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRAM/Content/Report/73156_reporte Por dato vital.xlsx
+++ b/SRAM/Content/Report/73156_reporte Por dato vital.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>Resumen Por Dato Vital</x:t>
   </x:si>
@@ -67,28 +67,25 @@
     <x:t>Total de Incidencias</x:t>
   </x:si>
   <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
   </x:si>
   <x:si>
     <x:t>25%</x:t>
   </x:si>
   <x:si>
-    <x:t>16%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23%</x:t>
+    <x:t>20%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -97,7 +94,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="#,###"/>
+    <x:numFmt numFmtId="165" formatCode="#,###"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -112,7 +109,14 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="18"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
+      <x:name val="Cambria"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Cambria"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
@@ -120,14 +124,7 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFFFFFF"/>
-      <x:name val="Calibri"/>
+      <x:name val="Cambria"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -140,18 +137,18 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF00008B"/>
-        <x:bgColor rgb="FF00008B"/>
+        <x:fgColor rgb="FFD3D3D3"/>
+        <x:bgColor rgb="FFD3D3D3"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
-        <x:bgColor rgb="FFFF0000"/>
+        <x:fgColor rgb="FFFFA500"/>
+        <x:bgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="13">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -170,12 +167,97 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
         <x:color rgb="FF00008B"/>
       </x:left>
       <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF00008B"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
@@ -190,8 +272,8 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thick">
-        <x:color rgb="FFFF0000"/>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
@@ -204,7 +286,7 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
+      <x:left style="thin">
         <x:color rgb="FF00008B"/>
       </x:left>
       <x:right style="none">
@@ -213,7 +295,7 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thick">
+      <x:bottom style="thin">
         <x:color rgb="FF00008B"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -230,7 +312,7 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thick">
+      <x:bottom style="thin">
         <x:color rgb="FF00008B"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -241,125 +323,201 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thick">
-        <x:color rgb="FFFF0000"/>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thick">
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
         <x:color rgb="FF00008B"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="15">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="21">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellXfs count="21">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -370,7 +528,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -653,276 +811,250 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O7"/>
+  <x:dimension ref="A1:O6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.710625" style="8" customWidth="1"/>
-    <x:col min="2" max="2" width="15.710625" style="8" customWidth="1"/>
-    <x:col min="3" max="3" width="10.710625" style="8" customWidth="1"/>
-    <x:col min="4" max="5" width="11.710625" style="8" customWidth="1"/>
-    <x:col min="6" max="6" width="12.710625" style="8" customWidth="1"/>
-    <x:col min="7" max="7" width="13.710625" style="8" customWidth="1"/>
-    <x:col min="8" max="8" width="20.710625" style="8" customWidth="1"/>
-    <x:col min="9" max="9" width="19.710625" style="8" customWidth="1"/>
-    <x:col min="10" max="10" width="27.710625" style="8" customWidth="1"/>
-    <x:col min="11" max="11" width="13.710625" style="8" customWidth="1"/>
-    <x:col min="12" max="12" width="27.710625" style="8" customWidth="1"/>
-    <x:col min="13" max="13" width="18.710625" style="8" customWidth="1"/>
-    <x:col min="14" max="14" width="14.710625" style="8" customWidth="1"/>
-    <x:col min="15" max="15" width="9.710625" style="8" customWidth="1"/>
+    <x:col min="1" max="1" width="6.710625" style="20" customWidth="1"/>
+    <x:col min="2" max="2" width="15.710625" style="20" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="20" customWidth="1"/>
+    <x:col min="4" max="5" width="11.710625" style="20" customWidth="1"/>
+    <x:col min="6" max="6" width="12.710625" style="20" customWidth="1"/>
+    <x:col min="7" max="7" width="13.710625" style="20" customWidth="1"/>
+    <x:col min="8" max="8" width="20.710625" style="20" customWidth="1"/>
+    <x:col min="9" max="9" width="19.710625" style="20" customWidth="1"/>
+    <x:col min="10" max="10" width="27.710625" style="20" customWidth="1"/>
+    <x:col min="11" max="11" width="13.710625" style="20" customWidth="1"/>
+    <x:col min="12" max="12" width="27.710625" style="20" customWidth="1"/>
+    <x:col min="13" max="13" width="18.710625" style="20" customWidth="1"/>
+    <x:col min="14" max="14" width="14.710625" style="20" customWidth="1"/>
+    <x:col min="15" max="15" width="9.710625" style="20" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15">
+    <x:row r="1" spans="1:15" customFormat="1" ht="30" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="2" t="s"/>
+      <x:c r="I1" s="2" t="s"/>
+      <x:c r="J1" s="2" t="s"/>
+      <x:c r="K1" s="2" t="s"/>
+      <x:c r="L1" s="2" t="s"/>
+      <x:c r="M1" s="2" t="s"/>
+      <x:c r="N1" s="2" t="s"/>
+      <x:c r="O1" s="2" t="s"/>
     </x:row>
     <x:row r="2" spans="1:15">
-      <x:c r="H2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="H2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2" s="4" t="s"/>
+      <x:c r="J2" s="4" t="s"/>
+      <x:c r="K2" s="4" t="s"/>
+      <x:c r="L2" s="4" t="s"/>
+      <x:c r="M2" s="4" t="s"/>
+      <x:c r="N2" s="4" t="s"/>
+      <x:c r="O2" s="4" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:15">
-      <x:c r="A3" s="3" t="s">
+    <x:row r="3" spans="1:15" s="20" customFormat="1">
+      <x:c r="A3" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
+      <x:c r="B3" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="C3" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D3" s="4" t="s">
+      <x:c r="D3" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="4" t="s">
+      <x:c r="E3" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F3" s="4" t="s">
+      <x:c r="F3" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G3" s="4" t="s">
+      <x:c r="G3" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="H3" s="5" t="s">
+      <x:c r="H3" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I3" s="5" t="s">
+      <x:c r="I3" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="J3" s="5" t="s">
+      <x:c r="J3" s="8" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="K3" s="5" t="s">
+      <x:c r="K3" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="L3" s="5" t="s">
+      <x:c r="L3" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="M3" s="5" t="s">
+      <x:c r="M3" s="8" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="N3" s="5" t="s">
+      <x:c r="N3" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="O3" s="6" t="s">
+      <x:c r="O3" s="9" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15">
-      <x:c r="A4" s="7" t="n">
+      <x:c r="A4" s="10" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="8" t="n">
+      <x:c r="B4" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="11" t="n">
+        <x:v>3490</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="9" t="n">
-        <x:v>3300</x:v>
-      </x:c>
-      <x:c r="D4" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="9" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="F4" s="8" t="s">
+      <x:c r="E4" s="11" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G4" s="8" t="s">
+      <x:c r="G4" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H4" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J4" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K4" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L4" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M4" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N4" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O4" s="10" t="n">
+      <x:c r="H4" s="10" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K4" s="2" t="n">
         <x:v>2</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N4" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O4" s="12" t="n">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
-      <x:c r="A5" s="7" t="n">
+      <x:c r="A5" s="13" t="n">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B5" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="9" t="n">
-        <x:v>350</x:v>
-      </x:c>
-      <x:c r="D5" s="8" t="n">
+      <x:c r="B5" s="14" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="15" t="n">
+        <x:v>6980</x:v>
+      </x:c>
+      <x:c r="D5" s="14" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="15" t="n">
+        <x:v>1450</x:v>
+      </x:c>
+      <x:c r="F5" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G5" s="16" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H5" s="17" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="9" t="n">
+      <x:c r="I5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="8" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H5" s="8" t="n">
+      <x:c r="J5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I5" s="8" t="n">
+      <x:c r="K5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J5" s="8" t="n">
+      <x:c r="L5" s="16" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M5" s="16" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K5" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L5" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M5" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N5" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O5" s="10" t="n">
-        <x:v>0</x:v>
+      <x:c r="O5" s="18" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:15">
-      <x:c r="A6" s="11" t="n">
+      <x:c r="A6" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="11" t="n">
+        <x:v>10470</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E6" s="11" t="n">
+        <x:v>2050</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B6" s="12" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="13" t="n">
-        <x:v>2550</x:v>
-      </x:c>
-      <x:c r="D6" s="12" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="13" t="n">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="F6" s="12" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G6" s="12" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H6" s="12" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="12" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J6" s="12" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K6" s="12" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L6" s="12" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M6" s="12" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N6" s="12" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O6" s="14" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:15">
-      <x:c r="A7" s="8" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="9" t="n">
-        <x:v>6200</x:v>
-      </x:c>
-      <x:c r="D7" s="8" t="n">
+      <x:c r="H6" s="19" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I6" s="19" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J6" s="19" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K6" s="19" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E7" s="9" t="n">
-        <x:v>1400</x:v>
-      </x:c>
-      <x:c r="F7" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G7" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H7" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="8" t="n">
+      <x:c r="L6" s="19" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J7" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K7" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L7" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M7" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N7" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O7" s="8" t="n">
+      <x:c r="M6" s="19" t="n">
         <x:v>3</x:v>
+      </x:c>
+      <x:c r="N6" s="19" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O6" s="19" t="n">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
